--- a/01.docs/selvi_test_docs.xlsx
+++ b/01.docs/selvi_test_docs.xlsx
@@ -17,16 +17,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ocs </t>
+      <t xml:space="preserve">docs </t>
     </r>
     <r>
       <rPr>
@@ -56,6 +47,15 @@
         <charset val="129"/>
       </rPr>
       <t>파일입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,9 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
